--- a/public/data/nuevo_inventario.xlsx
+++ b/public/data/nuevo_inventario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbarroso/Library/CloudStorage/GoogleDrive-martin@simca.mx/Mi unidad/Martin Barroso/PUBLICO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbarroso/inventario-web/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB427A05-530C-5345-A3F2-7107F39DE4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BF415-57A0-164E-BC4E-93111DDDE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{BAF3AA5D-A3F7-BA4A-95B0-71F6E6D7C4C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BAF3AA5D-A3F7-BA4A-95B0-71F6E6D7C4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="nombre_de_la_hoja" sheetId="1" r:id="rId1"/>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42E4EA4-415E-AA45-8084-4CC1B58ADAC7}">
   <dimension ref="A1:I363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F306" sqref="F306"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,23 +926,23 @@
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="105" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="116" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="129" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="134" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="135" max="149" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="159" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="160" max="164" width="6" bestFit="1" customWidth="1"/>
-    <col min="165" max="175" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="104" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="115" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="128" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="148" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="158" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="163" width="6" bestFit="1" customWidth="1"/>
+    <col min="164" max="174" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -994,7 +994,6 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="9">
-        <f>E2*F2</f>
         <v>46636.572444444442</v>
       </c>
       <c r="H2" s="31">
@@ -1022,7 +1021,6 @@
         <v>0.1</v>
       </c>
       <c r="G3" s="9">
-        <f>E3*F3</f>
         <v>43650.821058755093</v>
       </c>
       <c r="H3" s="31">
@@ -1050,7 +1048,6 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="9">
-        <f>E4*F4</f>
         <v>43650.821058755093</v>
       </c>
       <c r="H4" s="31">
@@ -1078,7 +1075,6 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="9">
-        <f>E5*F5</f>
         <v>55529.369774166684</v>
       </c>
       <c r="H5" s="31">
@@ -1106,7 +1102,6 @@
         <v>0.1</v>
       </c>
       <c r="G6" s="9">
-        <f>E6*F6</f>
         <v>43650.821058755093</v>
       </c>
       <c r="H6" s="31">
@@ -1134,7 +1129,6 @@
         <v>0.1</v>
       </c>
       <c r="G7" s="9">
-        <f>E7*F7</f>
         <v>55529.369774166684</v>
       </c>
       <c r="H7" s="31">
@@ -1162,7 +1156,6 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="9">
-        <f>E8*F8</f>
         <v>46675.277312390928</v>
       </c>
       <c r="H8" s="31">
@@ -1190,7 +1183,6 @@
         <v>0.1</v>
       </c>
       <c r="G9" s="9">
-        <f>E9*F9</f>
         <v>56930.052777222234</v>
       </c>
       <c r="H9" s="31">
@@ -1218,7 +1210,6 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="9">
-        <f>E10*F10</f>
         <v>46675.277312390928</v>
       </c>
       <c r="H10" s="31">
@@ -1246,7 +1237,6 @@
         <v>0.1</v>
       </c>
       <c r="G11" s="9">
-        <f>E11*F11</f>
         <v>56930.052777222234</v>
       </c>
       <c r="H11" s="31">
@@ -1274,7 +1264,6 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="9">
-        <f>E12*F12</f>
         <v>46675.277312390928</v>
       </c>
       <c r="H12" s="31">
@@ -1302,7 +1291,6 @@
         <v>0.1</v>
       </c>
       <c r="G13" s="9">
-        <f>E13*F13</f>
         <v>58330.736830555572</v>
       </c>
       <c r="H13" s="31">
@@ -1330,7 +1318,6 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="9">
-        <f>E14*F14</f>
         <v>58330.736830555572</v>
       </c>
       <c r="H14" s="31">
@@ -1358,7 +1345,6 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="9">
-        <f>E15*F15</f>
         <v>59830.400000000001</v>
       </c>
       <c r="H15" s="31">
@@ -1386,7 +1372,6 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="9">
-        <f>E16*F16</f>
         <v>47463.3</v>
       </c>
       <c r="H16" s="31">
@@ -1414,7 +1399,6 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="9">
-        <f>E17*F17</f>
         <v>70103.591368611131</v>
       </c>
       <c r="H17" s="31">
@@ -1442,7 +1426,6 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="9">
-        <f>E18*F18</f>
         <v>81113.374989444448</v>
       </c>
       <c r="H18" s="31">
@@ -1470,7 +1453,6 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="9">
-        <f>E19*F19</f>
         <v>70103.591368611131</v>
       </c>
       <c r="H19" s="31">
@@ -1498,7 +1480,6 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="9">
-        <f>E20*F20</f>
         <v>81113.374989444448</v>
       </c>
       <c r="H20" s="31">
@@ -1526,7 +1507,6 @@
         <v>0.2</v>
       </c>
       <c r="G21" s="11">
-        <f>E21*F21</f>
         <v>157980</v>
       </c>
       <c r="H21" s="31">
@@ -1554,7 +1534,6 @@
         <v>0.2</v>
       </c>
       <c r="G22" s="16">
-        <f>E22*F22</f>
         <v>100980</v>
       </c>
       <c r="H22" s="31">
@@ -1582,7 +1561,6 @@
         <v>0.2</v>
       </c>
       <c r="G23" s="16">
-        <f>E23*F23</f>
         <v>99980</v>
       </c>
       <c r="H23" s="31">
@@ -1610,7 +1588,6 @@
         <v>0.2</v>
       </c>
       <c r="G24" s="16">
-        <f>E24*F24</f>
         <v>94980</v>
       </c>
       <c r="H24" s="31">
@@ -1638,7 +1615,6 @@
         <v>0.2</v>
       </c>
       <c r="G25" s="16">
-        <f>E25*F25</f>
         <v>103980</v>
       </c>
       <c r="H25" s="31">
@@ -1666,7 +1642,6 @@
         <v>0.2</v>
       </c>
       <c r="G26" s="16">
-        <f>E26*F26</f>
         <v>94880</v>
       </c>
       <c r="H26" s="31">
@@ -1694,7 +1669,6 @@
         <v>0.2</v>
       </c>
       <c r="G27" s="16">
-        <f>E27*F27</f>
         <v>109340</v>
       </c>
       <c r="H27" s="31">
@@ -1722,7 +1696,6 @@
         <v>0.2</v>
       </c>
       <c r="G28" s="16">
-        <f>E28*F28</f>
         <v>94880</v>
       </c>
       <c r="H28" s="31">
@@ -1750,7 +1723,6 @@
         <v>0.2</v>
       </c>
       <c r="G29" s="16">
-        <f>E29*F29</f>
         <v>172980</v>
       </c>
       <c r="H29" s="31">
@@ -1778,7 +1750,6 @@
         <v>0.2</v>
       </c>
       <c r="G30" s="16">
-        <f>E30*F30</f>
         <v>105860</v>
       </c>
       <c r="H30" s="31">
@@ -1806,7 +1777,6 @@
         <v>0.2</v>
       </c>
       <c r="G31" s="16">
-        <f>E31*F31</f>
         <v>93980</v>
       </c>
       <c r="H31" s="31">
@@ -1834,7 +1804,6 @@
         <v>0.2</v>
       </c>
       <c r="G32" s="16">
-        <f>E32*F32</f>
         <v>105980</v>
       </c>
       <c r="H32" s="31">
@@ -1862,7 +1831,6 @@
         <v>0.2</v>
       </c>
       <c r="G33" s="16">
-        <f>E33*F33</f>
         <v>93860</v>
       </c>
       <c r="H33" s="31">
@@ -1890,7 +1858,6 @@
         <v>0.2</v>
       </c>
       <c r="G34" s="16">
-        <f>E34*F34</f>
         <v>90800</v>
       </c>
       <c r="H34" s="31">
@@ -1918,7 +1885,6 @@
         <v>0.2</v>
       </c>
       <c r="G35" s="16">
-        <f>E35*F35</f>
         <v>109980</v>
       </c>
       <c r="H35" s="31">
@@ -1946,7 +1912,6 @@
         <v>0.2</v>
       </c>
       <c r="G36" s="16">
-        <f>E36*F36</f>
         <v>155100</v>
       </c>
       <c r="H36" s="31">
@@ -1974,7 +1939,6 @@
         <v>0.2</v>
       </c>
       <c r="G37" s="16">
-        <f>E37*F37</f>
         <v>93980</v>
       </c>
       <c r="H37" s="31">
@@ -2002,7 +1966,6 @@
         <v>0.2</v>
       </c>
       <c r="G38" s="16">
-        <f>E38*F38</f>
         <v>88980</v>
       </c>
       <c r="H38" s="31">
@@ -2057,7 +2020,6 @@
         <v>0.2</v>
       </c>
       <c r="G40" s="16">
-        <f>E40*F40</f>
         <v>95980</v>
       </c>
       <c r="H40" s="31">
@@ -2085,7 +2047,6 @@
         <v>0.2</v>
       </c>
       <c r="G41" s="16">
-        <f>E41*F41</f>
         <v>97980</v>
       </c>
       <c r="H41" s="31">
@@ -3654,7 +3615,6 @@
         <v>0.15</v>
       </c>
       <c r="G109" s="11">
-        <f>E109*F109</f>
         <v>133862.60294117648</v>
       </c>
       <c r="H109" s="31">
@@ -3682,7 +3642,6 @@
         <v>0.15</v>
       </c>
       <c r="G110" s="11">
-        <f>E110*F110</f>
         <v>133862.60294117648</v>
       </c>
       <c r="H110" s="31">
@@ -3710,7 +3669,6 @@
         <v>0.15</v>
       </c>
       <c r="G111" s="11">
-        <f>E111*F111</f>
         <v>233709.26647058825</v>
       </c>
       <c r="H111" s="31">
@@ -3738,7 +3696,6 @@
         <v>0.15</v>
       </c>
       <c r="G112" s="11">
-        <f>E112*F112</f>
         <v>189232.11529411766</v>
       </c>
       <c r="H112" s="31">
@@ -3766,7 +3723,6 @@
         <v>0.15</v>
       </c>
       <c r="G113" s="11">
-        <f>E113*F113</f>
         <v>194224.45058823531</v>
       </c>
       <c r="H113" s="31">
@@ -3794,7 +3750,6 @@
         <v>0.15</v>
       </c>
       <c r="G114" s="11">
-        <f>E114*F114</f>
         <v>196947.54</v>
       </c>
       <c r="H114" s="31">
@@ -3822,7 +3777,6 @@
         <v>0.15</v>
       </c>
       <c r="G115" s="11">
-        <f>E115*F115</f>
         <v>119339.45294117647</v>
       </c>
       <c r="H115" s="31">
@@ -4487,7 +4441,6 @@
         <v>0.2</v>
       </c>
       <c r="G143" s="12">
-        <f>E143*F143</f>
         <v>123900</v>
       </c>
       <c r="H143" s="31">
@@ -4596,7 +4549,6 @@
         <v>0.2</v>
       </c>
       <c r="G147" s="12">
-        <f>E147*F147</f>
         <v>124940</v>
       </c>
       <c r="H147" s="31">
@@ -4678,7 +4630,6 @@
         <v>0.2</v>
       </c>
       <c r="G150" s="11">
-        <f>E150*F150</f>
         <v>118000</v>
       </c>
       <c r="H150" s="31">
@@ -9418,7 +9369,6 @@
         <v>0.06</v>
       </c>
       <c r="G350" s="11">
-        <f>E350*F350</f>
         <v>28505.52</v>
       </c>
       <c r="H350" s="31">

--- a/public/data/nuevo_inventario.xlsx
+++ b/public/data/nuevo_inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbarroso/inventario-web/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BF415-57A0-164E-BC4E-93111DDDE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC5FDF-5C40-EF4B-ADF4-620DC0760A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BAF3AA5D-A3F7-BA4A-95B0-71F6E6D7C4C4}"/>
   </bookViews>
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,50 +399,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,42 +463,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -911,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42E4EA4-415E-AA45-8084-4CC1B58ADAC7}">
   <dimension ref="A1:I363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J353" sqref="J353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +956,7 @@
       <c r="G2" s="9">
         <v>46636.572444444442</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="20">
         <v>419729.15199999994</v>
       </c>
       <c r="I2" s="9"/>
@@ -1023,7 +983,7 @@
       <c r="G3" s="9">
         <v>43650.821058755093</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="20">
         <v>392857.38952879579</v>
       </c>
       <c r="I3" s="9"/>
@@ -1050,7 +1010,7 @@
       <c r="G4" s="9">
         <v>43650.821058755093</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="20">
         <v>392857.38952879579</v>
       </c>
       <c r="I4" s="9"/>
@@ -1077,7 +1037,7 @@
       <c r="G5" s="9">
         <v>55529.369774166684</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="20">
         <v>499764.32796750014</v>
       </c>
       <c r="I5" s="9"/>
@@ -1104,7 +1064,7 @@
       <c r="G6" s="9">
         <v>43650.821058755093</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="20">
         <v>392857.38952879579</v>
       </c>
       <c r="I6" s="9"/>
@@ -1131,7 +1091,7 @@
       <c r="G7" s="9">
         <v>55529.369774166684</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="20">
         <v>499764.32796750014</v>
       </c>
       <c r="I7" s="9"/>
@@ -1158,7 +1118,7 @@
       <c r="G8" s="9">
         <v>46675.277312390928</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="20">
         <v>420077.49581151834</v>
       </c>
       <c r="I8" s="9"/>
@@ -1185,7 +1145,7 @@
       <c r="G9" s="9">
         <v>56930.052777222234</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="20">
         <v>512370.47499500006</v>
       </c>
       <c r="I9" s="9"/>
@@ -1212,7 +1172,7 @@
       <c r="G10" s="9">
         <v>46675.277312390928</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="20">
         <v>420077.49581151834</v>
       </c>
       <c r="I10" s="9"/>
@@ -1239,7 +1199,7 @@
       <c r="G11" s="9">
         <v>56930.052777222234</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="20">
         <v>512370.47499500006</v>
       </c>
       <c r="I11" s="9"/>
@@ -1266,7 +1226,7 @@
       <c r="G12" s="9">
         <v>46675.277312390928</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="20">
         <v>420077.49581151834</v>
       </c>
       <c r="I12" s="9"/>
@@ -1293,7 +1253,7 @@
       <c r="G13" s="9">
         <v>58330.736830555572</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="20">
         <v>524976.63147500006</v>
       </c>
       <c r="I13" s="9"/>
@@ -1320,7 +1280,7 @@
       <c r="G14" s="9">
         <v>58330.736830555572</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="20">
         <v>524976.63147500006</v>
       </c>
       <c r="I14" s="9"/>
@@ -1347,7 +1307,7 @@
       <c r="G15" s="9">
         <v>59830.400000000001</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="20">
         <v>538473.6</v>
       </c>
       <c r="I15" s="9"/>
@@ -1374,7 +1334,7 @@
       <c r="G16" s="9">
         <v>47463.3</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="20">
         <v>427169.7</v>
       </c>
       <c r="I16" s="9"/>
@@ -1401,7 +1361,7 @@
       <c r="G17" s="9">
         <v>70103.591368611131</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="20">
         <v>630932.32231750013</v>
       </c>
       <c r="I17" s="9"/>
@@ -1428,7 +1388,7 @@
       <c r="G18" s="9">
         <v>81113.374989444448</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="20">
         <v>730020.37490499998</v>
       </c>
       <c r="I18" s="9"/>
@@ -1455,7 +1415,7 @@
       <c r="G19" s="9">
         <v>70103.591368611131</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="20">
         <v>630932.32231750013</v>
       </c>
       <c r="I19" s="9"/>
@@ -1482,7 +1442,7 @@
       <c r="G20" s="9">
         <v>81113.374989444448</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="20">
         <v>730020.37490499998</v>
       </c>
       <c r="I20" s="9"/>
@@ -1509,7 +1469,7 @@
       <c r="G21" s="11">
         <v>157980</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="20">
         <v>631920</v>
       </c>
       <c r="I21" s="11"/>
@@ -1536,7 +1496,7 @@
       <c r="G22" s="16">
         <v>100980</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="20">
         <v>403920</v>
       </c>
       <c r="I22" s="12"/>
@@ -1563,7 +1523,7 @@
       <c r="G23" s="16">
         <v>99980</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="20">
         <v>399920</v>
       </c>
       <c r="I23" s="12"/>
@@ -1590,7 +1550,7 @@
       <c r="G24" s="16">
         <v>94980</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="20">
         <v>379920</v>
       </c>
       <c r="I24" s="12"/>
@@ -1617,7 +1577,7 @@
       <c r="G25" s="16">
         <v>103980</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="20">
         <v>415920</v>
       </c>
       <c r="I25" s="12"/>
@@ -1644,7 +1604,7 @@
       <c r="G26" s="16">
         <v>94880</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="20">
         <v>379520</v>
       </c>
       <c r="I26" s="12"/>
@@ -1671,7 +1631,7 @@
       <c r="G27" s="16">
         <v>109340</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="20">
         <v>437360</v>
       </c>
       <c r="I27" s="12"/>
@@ -1698,7 +1658,7 @@
       <c r="G28" s="16">
         <v>94880</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="20">
         <v>379520</v>
       </c>
       <c r="I28" s="12"/>
@@ -1725,7 +1685,7 @@
       <c r="G29" s="16">
         <v>172980</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="20">
         <v>691920</v>
       </c>
       <c r="I29" s="12"/>
@@ -1752,7 +1712,7 @@
       <c r="G30" s="16">
         <v>105860</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="20">
         <v>423440</v>
       </c>
       <c r="I30" s="12"/>
@@ -1779,7 +1739,7 @@
       <c r="G31" s="16">
         <v>93980</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="20">
         <v>375920</v>
       </c>
       <c r="I31" s="12"/>
@@ -1806,7 +1766,7 @@
       <c r="G32" s="16">
         <v>105980</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="20">
         <v>423920</v>
       </c>
       <c r="I32" s="12"/>
@@ -1833,7 +1793,7 @@
       <c r="G33" s="16">
         <v>93860</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="20">
         <v>375440</v>
       </c>
       <c r="I33" s="12"/>
@@ -1860,7 +1820,7 @@
       <c r="G34" s="16">
         <v>90800</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="20">
         <v>363200</v>
       </c>
       <c r="I34" s="12"/>
@@ -1887,7 +1847,7 @@
       <c r="G35" s="16">
         <v>109980</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="20">
         <v>439920</v>
       </c>
       <c r="I35" s="12"/>
@@ -1914,7 +1874,7 @@
       <c r="G36" s="16">
         <v>155100</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="20">
         <v>620400</v>
       </c>
       <c r="I36" s="12"/>
@@ -1941,7 +1901,7 @@
       <c r="G37" s="16">
         <v>93980</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="20">
         <v>375920</v>
       </c>
       <c r="I37" s="12"/>
@@ -1968,37 +1928,37 @@
       <c r="G38" s="16">
         <v>88980</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="20">
         <v>355920</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="22">
         <v>2</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="23">
         <v>439900</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="24">
         <v>0.2</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="23">
         <v>87980</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="20">
         <v>351920</v>
       </c>
-      <c r="I39" s="29"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -2022,7 +1982,7 @@
       <c r="G40" s="16">
         <v>95980</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="20">
         <v>383920</v>
       </c>
       <c r="I40" s="12"/>
@@ -2049,7 +2009,7 @@
       <c r="G41" s="16">
         <v>97980</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="20">
         <v>391920</v>
       </c>
       <c r="I41" s="12"/>
@@ -2072,7 +2032,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="31">
+      <c r="H42" s="20">
         <v>193153.6827</v>
       </c>
       <c r="I42" s="15"/>
@@ -2095,7 +2055,7 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="31">
+      <c r="H43" s="20">
         <v>194350.56300000002</v>
       </c>
       <c r="I43" s="15"/>
@@ -2118,7 +2078,7 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="31">
+      <c r="H44" s="20">
         <v>198705.33360000001</v>
       </c>
       <c r="I44" s="15"/>
@@ -2141,7 +2101,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="31">
+      <c r="H45" s="20">
         <v>184396.71000000002</v>
       </c>
       <c r="I45" s="15"/>
@@ -2164,7 +2124,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="31">
+      <c r="H46" s="20">
         <v>179215.41</v>
       </c>
       <c r="I46" s="15"/>
@@ -2187,7 +2147,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="31">
+      <c r="H47" s="20">
         <v>185189.25700000001</v>
       </c>
       <c r="I47" s="15"/>
@@ -2210,7 +2170,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="31">
+      <c r="H48" s="20">
         <v>185189.25700000001</v>
       </c>
       <c r="I48" s="15"/>
@@ -2233,7 +2193,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="31">
+      <c r="H49" s="20">
         <v>218263.78320000001</v>
       </c>
       <c r="I49" s="15"/>
@@ -2256,7 +2216,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="31">
+      <c r="H50" s="20">
         <v>512666.86959999998</v>
       </c>
       <c r="I50" s="15"/>
@@ -2279,7 +2239,7 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="31">
+      <c r="H51" s="20">
         <v>209908.6636</v>
       </c>
       <c r="I51" s="15"/>
@@ -2302,7 +2262,7 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="31">
+      <c r="H52" s="20">
         <v>196405.42819999999</v>
       </c>
       <c r="I52" s="15"/>
@@ -2325,7 +2285,7 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="31">
+      <c r="H53" s="20">
         <v>197622.45800000001</v>
       </c>
       <c r="I53" s="15"/>
@@ -2348,7 +2308,7 @@
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="31">
+      <c r="H54" s="20">
         <v>203765.56080000004</v>
       </c>
       <c r="I54" s="15"/>
@@ -2371,7 +2331,7 @@
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="31">
+      <c r="H55" s="20">
         <v>186870.65280000001</v>
       </c>
       <c r="I55" s="15"/>
@@ -2394,7 +2354,7 @@
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="31">
+      <c r="H56" s="20">
         <v>201423.49200000003</v>
       </c>
       <c r="I56" s="15"/>
@@ -2417,7 +2377,7 @@
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="31">
+      <c r="H57" s="20">
         <v>201423.49200000003</v>
       </c>
       <c r="I57" s="15"/>
@@ -2440,7 +2400,7 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="31">
+      <c r="H58" s="20">
         <v>231201.81779999999</v>
       </c>
       <c r="I58" s="15"/>
@@ -2463,7 +2423,7 @@
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="31">
+      <c r="H59" s="20">
         <v>206956.4406</v>
       </c>
       <c r="I59" s="15"/>
@@ -2486,7 +2446,7 @@
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="31">
+      <c r="H60" s="20">
         <v>197796.31940000001</v>
       </c>
       <c r="I60" s="15"/>
@@ -2509,7 +2469,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="31">
+      <c r="H61" s="20">
         <v>184890.72029999999</v>
       </c>
       <c r="I61" s="15"/>
@@ -2532,7 +2492,7 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="31">
+      <c r="H62" s="20">
         <v>221375.58170000001</v>
       </c>
       <c r="I62" s="15"/>
@@ -2555,7 +2515,7 @@
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="31">
+      <c r="H63" s="20">
         <v>209862.27500000002</v>
       </c>
       <c r="I63" s="15"/>
@@ -2578,7 +2538,7 @@
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="31">
+      <c r="H64" s="20">
         <v>201283.21590000001</v>
       </c>
       <c r="I64" s="15"/>
@@ -2601,7 +2561,7 @@
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="31">
+      <c r="H65" s="20">
         <v>202530.47099999999</v>
       </c>
       <c r="I65" s="15"/>
@@ -2624,7 +2584,7 @@
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="31">
+      <c r="H66" s="20">
         <v>208151.4192</v>
       </c>
       <c r="I66" s="15"/>
@@ -2647,7 +2607,7 @@
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="31">
+      <c r="H67" s="20">
         <v>191772.5784</v>
       </c>
       <c r="I67" s="15"/>
@@ -2670,7 +2630,7 @@
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="31">
+      <c r="H68" s="20">
         <v>207904.28820000004</v>
       </c>
       <c r="I68" s="15"/>
@@ -2693,7 +2653,7 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="31">
+      <c r="H69" s="20">
         <v>207904.28820000004</v>
       </c>
       <c r="I69" s="15"/>
@@ -2716,7 +2676,7 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="31">
+      <c r="H70" s="20">
         <v>236807.16629999998</v>
       </c>
       <c r="I70" s="15"/>
@@ -2739,7 +2699,7 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="31">
+      <c r="H71" s="20">
         <v>208912.09999999998</v>
       </c>
       <c r="I71" s="15"/>
@@ -2762,7 +2722,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="14"/>
-      <c r="H72" s="31">
+      <c r="H72" s="20">
         <v>202649.25719999999</v>
       </c>
       <c r="I72" s="15"/>
@@ -2785,7 +2745,7 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="31">
+      <c r="H73" s="20">
         <v>186443.89920000001</v>
       </c>
       <c r="I73" s="15"/>
@@ -2808,7 +2768,7 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="31">
+      <c r="H74" s="20">
         <v>192357.87340000001</v>
       </c>
       <c r="I74" s="15"/>
@@ -2831,7 +2791,7 @@
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="31">
+      <c r="H75" s="20">
         <v>233830.34950000001</v>
       </c>
       <c r="I75" s="15"/>
@@ -2854,7 +2814,7 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="31">
+      <c r="H76" s="20">
         <v>215017.49460000001</v>
       </c>
       <c r="I76" s="15"/>
@@ -2877,7 +2837,7 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="31">
+      <c r="H77" s="20">
         <v>194693.98320000002</v>
       </c>
       <c r="I77" s="15"/>
@@ -2900,7 +2860,7 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="31">
+      <c r="H78" s="20">
         <v>195900.40800000002</v>
       </c>
       <c r="I78" s="15"/>
@@ -2923,7 +2883,7 @@
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="31">
+      <c r="H79" s="20">
         <v>201989.98080000002</v>
       </c>
       <c r="I79" s="15"/>
@@ -2946,7 +2906,7 @@
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="31">
+      <c r="H80" s="20">
         <v>184590.81180000002</v>
       </c>
       <c r="I80" s="15"/>
@@ -2969,7 +2929,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="31">
+      <c r="H81" s="20">
         <v>207115.73370000001</v>
       </c>
       <c r="I81" s="15"/>
@@ -2992,7 +2952,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="31">
+      <c r="H82" s="20">
         <v>207115.73370000001</v>
       </c>
       <c r="I82" s="15"/>
@@ -3015,7 +2975,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="31">
+      <c r="H83" s="20">
         <v>242412.5148</v>
       </c>
       <c r="I83" s="15"/>
@@ -3038,7 +2998,7 @@
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="31">
+      <c r="H84" s="20">
         <v>190864.5673</v>
       </c>
       <c r="I84" s="15"/>
@@ -3061,7 +3021,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="31">
+      <c r="H85" s="20">
         <v>195344.79689999999</v>
       </c>
       <c r="I85" s="15"/>
@@ -3084,7 +3044,7 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="31">
+      <c r="H86" s="20">
         <v>195344.79690000002</v>
       </c>
       <c r="I86" s="15"/>
@@ -3107,7 +3067,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="31">
+      <c r="H87" s="20">
         <v>271851.05279999995</v>
       </c>
       <c r="I87" s="15"/>
@@ -3130,7 +3090,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="14"/>
-      <c r="H88" s="31">
+      <c r="H88" s="20">
         <v>219882.92720000001</v>
       </c>
       <c r="I88" s="15"/>
@@ -3153,7 +3113,7 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="14"/>
-      <c r="H89" s="31">
+      <c r="H89" s="20">
         <v>199314.8847</v>
       </c>
       <c r="I89" s="15"/>
@@ -3176,7 +3136,7 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="14"/>
-      <c r="H90" s="31">
+      <c r="H90" s="20">
         <v>200549.943</v>
       </c>
       <c r="I90" s="15"/>
@@ -3199,7 +3159,7 @@
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="14"/>
-      <c r="H91" s="31">
+      <c r="H91" s="20">
         <v>202533.20280000003</v>
       </c>
       <c r="I91" s="15"/>
@@ -3222,7 +3182,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="14"/>
-      <c r="H92" s="31">
+      <c r="H92" s="20">
         <v>188899.10819999996</v>
       </c>
       <c r="I92" s="15"/>
@@ -3245,7 +3205,7 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="14"/>
-      <c r="H93" s="31">
+      <c r="H93" s="20">
         <v>208869.7194</v>
       </c>
       <c r="I93" s="15"/>
@@ -3268,7 +3228,7 @@
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="31">
+      <c r="H94" s="20">
         <v>208928.17720000001</v>
       </c>
       <c r="I94" s="15"/>
@@ -3291,7 +3251,7 @@
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="14"/>
-      <c r="H95" s="31">
+      <c r="H95" s="20">
         <v>287637.83799999999</v>
       </c>
       <c r="I95" s="15"/>
@@ -3314,7 +3274,7 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="14"/>
-      <c r="H96" s="31">
+      <c r="H96" s="20">
         <v>193851.4908</v>
       </c>
       <c r="I96" s="15"/>
@@ -3337,7 +3297,7 @@
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="14"/>
-      <c r="H97" s="31">
+      <c r="H97" s="20">
         <v>263311.30290000001</v>
       </c>
       <c r="I97" s="15"/>
@@ -3360,7 +3320,7 @@
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="31">
+      <c r="H98" s="20">
         <v>199838.48520000002</v>
       </c>
       <c r="I98" s="15"/>
@@ -3383,7 +3343,7 @@
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="31">
+      <c r="H99" s="20">
         <v>201076.78800000003</v>
       </c>
       <c r="I99" s="15"/>
@@ -3406,7 +3366,7 @@
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="14"/>
-      <c r="H100" s="31">
+      <c r="H100" s="20">
         <v>206948.7885</v>
       </c>
       <c r="I100" s="15"/>
@@ -3429,7 +3389,7 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="14"/>
-      <c r="H101" s="31">
+      <c r="H101" s="20">
         <v>193325.3928</v>
       </c>
       <c r="I101" s="15"/>
@@ -3452,7 +3412,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="14"/>
-      <c r="H102" s="31">
+      <c r="H102" s="20">
         <v>213741.50490000003</v>
       </c>
       <c r="I102" s="15"/>
@@ -3475,7 +3435,7 @@
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="14"/>
-      <c r="H103" s="31">
+      <c r="H103" s="20">
         <v>213741.50490000003</v>
       </c>
       <c r="I103" s="15"/>
@@ -3498,7 +3458,7 @@
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="14"/>
-      <c r="H104" s="31">
+      <c r="H104" s="20">
         <v>294270.9474</v>
       </c>
       <c r="I104" s="15"/>
@@ -3521,7 +3481,7 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="14"/>
-      <c r="H105" s="31">
+      <c r="H105" s="20">
         <v>198331.72039999999</v>
       </c>
       <c r="I105" s="15"/>
@@ -3544,7 +3504,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="14"/>
-      <c r="H106" s="31">
+      <c r="H106" s="20">
         <v>203708.1827</v>
       </c>
       <c r="I106" s="15"/>
@@ -3567,7 +3527,7 @@
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="14"/>
-      <c r="H107" s="31">
+      <c r="H107" s="20">
         <v>203708.1827</v>
       </c>
       <c r="I107" s="15"/>
@@ -3590,7 +3550,7 @@
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="14"/>
-      <c r="H108" s="31">
+      <c r="H108" s="20">
         <v>269516.59140000003</v>
       </c>
       <c r="I108" s="15"/>
@@ -3617,7 +3577,7 @@
       <c r="G109" s="11">
         <v>133862.60294117648</v>
       </c>
-      <c r="H109" s="31">
+      <c r="H109" s="20">
         <v>758554.75</v>
       </c>
       <c r="I109" s="11"/>
@@ -3644,7 +3604,7 @@
       <c r="G110" s="11">
         <v>133862.60294117648</v>
       </c>
-      <c r="H110" s="31">
+      <c r="H110" s="20">
         <v>758554.75</v>
       </c>
       <c r="I110" s="11"/>
@@ -3671,7 +3631,7 @@
       <c r="G111" s="11">
         <v>233709.26647058825</v>
       </c>
-      <c r="H111" s="31">
+      <c r="H111" s="20">
         <v>1324352.51</v>
       </c>
       <c r="I111" s="11"/>
@@ -3698,7 +3658,7 @@
       <c r="G112" s="11">
         <v>189232.11529411766</v>
       </c>
-      <c r="H112" s="31">
+      <c r="H112" s="20">
         <v>1072315.32</v>
       </c>
       <c r="I112" s="11"/>
@@ -3725,37 +3685,37 @@
       <c r="G113" s="11">
         <v>194224.45058823531</v>
       </c>
-      <c r="H113" s="31">
+      <c r="H113" s="20">
         <v>1100605.22</v>
       </c>
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" s="20" t="s">
+      <c r="A114" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D114" s="27">
         <v>3</v>
       </c>
-      <c r="E114" s="22">
+      <c r="E114" s="28">
         <v>1312983.6000000001</v>
       </c>
-      <c r="F114" s="23">
+      <c r="F114" s="29">
         <v>0.15</v>
       </c>
       <c r="G114" s="11">
         <v>196947.54</v>
       </c>
-      <c r="H114" s="31">
+      <c r="H114" s="20">
         <v>1116036.06</v>
       </c>
-      <c r="I114" s="22"/>
+      <c r="I114" s="28"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -3779,7 +3739,7 @@
       <c r="G115" s="11">
         <v>119339.45294117647</v>
       </c>
-      <c r="H115" s="31">
+      <c r="H115" s="20">
         <v>676256.9</v>
       </c>
       <c r="I115" s="11"/>
@@ -3802,7 +3762,7 @@
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="14"/>
-      <c r="H116" s="31">
+      <c r="H116" s="20">
         <v>1182336</v>
       </c>
       <c r="I116" s="12"/>
@@ -3825,7 +3785,7 @@
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="31">
+      <c r="H117" s="20">
         <v>1291584</v>
       </c>
       <c r="I117" s="12"/>
@@ -3848,7 +3808,7 @@
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="14"/>
-      <c r="H118" s="31">
+      <c r="H118" s="20">
         <v>982400</v>
       </c>
       <c r="I118" s="12"/>
@@ -3871,7 +3831,7 @@
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="31">
+      <c r="H119" s="20">
         <v>1254464</v>
       </c>
       <c r="I119" s="12"/>
@@ -3894,7 +3854,7 @@
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="14"/>
-      <c r="H120" s="31">
+      <c r="H120" s="20">
         <v>1146474</v>
       </c>
       <c r="I120" s="12"/>
@@ -3917,7 +3877,7 @@
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="31">
+      <c r="H121" s="20">
         <v>1182069</v>
       </c>
       <c r="I121" s="12"/>
@@ -3940,7 +3900,7 @@
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="14"/>
-      <c r="H122" s="31">
+      <c r="H122" s="20">
         <v>1478428</v>
       </c>
       <c r="I122" s="12"/>
@@ -3963,7 +3923,7 @@
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="14"/>
-      <c r="H123" s="31">
+      <c r="H123" s="20">
         <v>1030154.16</v>
       </c>
       <c r="I123" s="12"/>
@@ -3986,7 +3946,7 @@
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="14"/>
-      <c r="H124" s="31">
+      <c r="H124" s="20">
         <v>1125330.98</v>
       </c>
       <c r="I124" s="12"/>
@@ -4009,7 +3969,7 @@
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="14"/>
-      <c r="H125" s="31">
+      <c r="H125" s="20">
         <v>1196321.25</v>
       </c>
       <c r="I125" s="12"/>
@@ -4032,7 +3992,7 @@
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="14"/>
-      <c r="H126" s="31">
+      <c r="H126" s="20">
         <v>1234736.3</v>
       </c>
       <c r="I126" s="12"/>
@@ -4055,7 +4015,7 @@
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="14"/>
-      <c r="H127" s="31">
+      <c r="H127" s="20">
         <v>1535839</v>
       </c>
       <c r="I127" s="12"/>
@@ -4078,7 +4038,7 @@
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="14"/>
-      <c r="H128" s="31">
+      <c r="H128" s="20">
         <v>1080449.07</v>
       </c>
       <c r="I128" s="12"/>
@@ -4101,7 +4061,7 @@
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="14"/>
-      <c r="H129" s="31">
+      <c r="H129" s="20">
         <v>1127683.1099999999</v>
       </c>
       <c r="I129" s="12"/>
@@ -4124,7 +4084,7 @@
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="14"/>
-      <c r="H130" s="31">
+      <c r="H130" s="20">
         <v>1284757.6000000001</v>
       </c>
       <c r="I130" s="12"/>
@@ -4147,7 +4107,7 @@
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="14"/>
-      <c r="H131" s="31">
+      <c r="H131" s="20">
         <v>1129804.2</v>
       </c>
       <c r="I131" s="12"/>
@@ -4170,7 +4130,7 @@
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="14"/>
-      <c r="H132" s="31">
+      <c r="H132" s="20">
         <v>1240512</v>
       </c>
       <c r="I132" s="12"/>
@@ -4193,7 +4153,7 @@
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="14"/>
-      <c r="H133" s="31">
+      <c r="H133" s="20">
         <v>1296425.52</v>
       </c>
       <c r="I133" s="12"/>
@@ -4216,7 +4176,7 @@
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="14"/>
-      <c r="H134" s="31">
+      <c r="H134" s="20">
         <v>1333785.18</v>
       </c>
       <c r="I134" s="12"/>
@@ -4239,7 +4199,7 @@
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="14"/>
-      <c r="H135" s="31">
+      <c r="H135" s="20">
         <v>2329664</v>
       </c>
       <c r="I135" s="12"/>
@@ -4262,7 +4222,7 @@
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="14"/>
-      <c r="H136" s="31">
+      <c r="H136" s="20">
         <v>2413888</v>
       </c>
       <c r="I136" s="12"/>
@@ -4285,7 +4245,7 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="14"/>
-      <c r="H137" s="31">
+      <c r="H137" s="20">
         <v>1960704</v>
       </c>
       <c r="I137" s="12"/>
@@ -4308,7 +4268,7 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="14"/>
-      <c r="H138" s="31">
+      <c r="H138" s="20">
         <v>2216384</v>
       </c>
       <c r="I138" s="12"/>
@@ -4335,7 +4295,7 @@
       <c r="G139" s="12">
         <v>99980</v>
       </c>
-      <c r="H139" s="31">
+      <c r="H139" s="20">
         <v>399920</v>
       </c>
       <c r="I139" s="12"/>
@@ -4362,7 +4322,7 @@
       <c r="G140" s="12">
         <v>118980</v>
       </c>
-      <c r="H140" s="31">
+      <c r="H140" s="20">
         <v>475920</v>
       </c>
       <c r="I140" s="12"/>
@@ -4389,7 +4349,7 @@
       <c r="G141" s="12">
         <v>118980</v>
       </c>
-      <c r="H141" s="31">
+      <c r="H141" s="20">
         <v>475920</v>
       </c>
       <c r="I141" s="12"/>
@@ -4416,7 +4376,7 @@
       <c r="G142" s="12">
         <v>99980</v>
       </c>
-      <c r="H142" s="31">
+      <c r="H142" s="20">
         <v>399920</v>
       </c>
       <c r="I142" s="12"/>
@@ -4443,7 +4403,7 @@
       <c r="G143" s="12">
         <v>123900</v>
       </c>
-      <c r="H143" s="31">
+      <c r="H143" s="20">
         <v>495600</v>
       </c>
       <c r="I143" s="12"/>
@@ -4470,7 +4430,7 @@
       <c r="G144" s="12">
         <v>88640</v>
       </c>
-      <c r="H144" s="31">
+      <c r="H144" s="20">
         <v>354560</v>
       </c>
       <c r="I144" s="12"/>
@@ -4497,7 +4457,7 @@
       <c r="G145" s="12">
         <v>106980</v>
       </c>
-      <c r="H145" s="31">
+      <c r="H145" s="20">
         <v>427920</v>
       </c>
       <c r="I145" s="12"/>
@@ -4524,7 +4484,7 @@
       <c r="G146" s="12">
         <v>106980</v>
       </c>
-      <c r="H146" s="31">
+      <c r="H146" s="20">
         <v>427920</v>
       </c>
       <c r="I146" s="12"/>
@@ -4551,7 +4511,7 @@
       <c r="G147" s="12">
         <v>124940</v>
       </c>
-      <c r="H147" s="31">
+      <c r="H147" s="20">
         <v>499760</v>
       </c>
       <c r="I147" s="12"/>
@@ -4578,7 +4538,7 @@
       <c r="G148" s="12">
         <v>116980</v>
       </c>
-      <c r="H148" s="31">
+      <c r="H148" s="20">
         <v>467920</v>
       </c>
       <c r="I148" s="12"/>
@@ -4605,7 +4565,7 @@
       <c r="G149" s="12">
         <v>120980</v>
       </c>
-      <c r="H149" s="31">
+      <c r="H149" s="20">
         <v>483920</v>
       </c>
       <c r="I149" s="12"/>
@@ -4632,7 +4592,7 @@
       <c r="G150" s="11">
         <v>118000</v>
       </c>
-      <c r="H150" s="31">
+      <c r="H150" s="20">
         <v>472000</v>
       </c>
       <c r="I150" s="11"/>
@@ -4655,7 +4615,7 @@
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="14"/>
-      <c r="H151" s="31">
+      <c r="H151" s="20">
         <v>191200</v>
       </c>
       <c r="I151" s="11"/>
@@ -4678,7 +4638,7 @@
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="14"/>
-      <c r="H152" s="31">
+      <c r="H152" s="20">
         <v>191200</v>
       </c>
       <c r="I152" s="11"/>
@@ -4701,7 +4661,7 @@
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="14"/>
-      <c r="H153" s="31">
+      <c r="H153" s="20">
         <v>191200</v>
       </c>
       <c r="I153" s="11"/>
@@ -4724,7 +4684,7 @@
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="14"/>
-      <c r="H154" s="31">
+      <c r="H154" s="20">
         <v>241000</v>
       </c>
       <c r="I154" s="11"/>
@@ -4747,7 +4707,7 @@
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="14"/>
-      <c r="H155" s="31">
+      <c r="H155" s="20">
         <v>244400</v>
       </c>
       <c r="I155" s="11"/>
@@ -4770,7 +4730,7 @@
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="14"/>
-      <c r="H156" s="31">
+      <c r="H156" s="20">
         <v>244300</v>
       </c>
       <c r="I156" s="11"/>
@@ -4793,7 +4753,7 @@
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="14"/>
-      <c r="H157" s="31">
+      <c r="H157" s="20">
         <v>241700</v>
       </c>
       <c r="I157" s="11"/>
@@ -4816,7 +4776,7 @@
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="14"/>
-      <c r="H158" s="31">
+      <c r="H158" s="20">
         <v>244300</v>
       </c>
       <c r="I158" s="11"/>
@@ -4839,7 +4799,7 @@
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="14"/>
-      <c r="H159" s="31">
+      <c r="H159" s="20">
         <v>215300</v>
       </c>
       <c r="I159" s="11"/>
@@ -4862,7 +4822,7 @@
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="14"/>
-      <c r="H160" s="31">
+      <c r="H160" s="20">
         <v>215300</v>
       </c>
       <c r="I160" s="11"/>
@@ -4885,7 +4845,7 @@
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="14"/>
-      <c r="H161" s="31">
+      <c r="H161" s="20">
         <v>253300</v>
       </c>
       <c r="I161" s="11"/>
@@ -4908,7 +4868,7 @@
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="14"/>
-      <c r="H162" s="31">
+      <c r="H162" s="20">
         <v>229900</v>
       </c>
       <c r="I162" s="11"/>
@@ -4931,7 +4891,7 @@
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="14"/>
-      <c r="H163" s="31">
+      <c r="H163" s="20">
         <v>230000</v>
       </c>
       <c r="I163" s="11"/>
@@ -4954,7 +4914,7 @@
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="14"/>
-      <c r="H164" s="31">
+      <c r="H164" s="20">
         <v>228900</v>
       </c>
       <c r="I164" s="11"/>
@@ -4977,7 +4937,7 @@
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="14"/>
-      <c r="H165" s="31">
+      <c r="H165" s="20">
         <v>232400</v>
       </c>
       <c r="I165" s="11"/>
@@ -5000,7 +4960,7 @@
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="14"/>
-      <c r="H166" s="31">
+      <c r="H166" s="20">
         <v>254600</v>
       </c>
       <c r="I166" s="11"/>
@@ -5023,7 +4983,7 @@
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="14"/>
-      <c r="H167" s="31">
+      <c r="H167" s="20">
         <v>224700</v>
       </c>
       <c r="I167" s="11"/>
@@ -5046,7 +5006,7 @@
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="14"/>
-      <c r="H168" s="31">
+      <c r="H168" s="20">
         <v>224700</v>
       </c>
       <c r="I168" s="11"/>
@@ -5069,7 +5029,7 @@
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="14"/>
-      <c r="H169" s="31">
+      <c r="H169" s="20">
         <v>222400</v>
       </c>
       <c r="I169" s="11"/>
@@ -5092,7 +5052,7 @@
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="14"/>
-      <c r="H170" s="31">
+      <c r="H170" s="20">
         <v>222400</v>
       </c>
       <c r="I170" s="11"/>
@@ -5115,7 +5075,7 @@
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="14"/>
-      <c r="H171" s="31">
+      <c r="H171" s="20">
         <v>222400</v>
       </c>
       <c r="I171" s="11"/>
@@ -5138,7 +5098,7 @@
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="14"/>
-      <c r="H172" s="31">
+      <c r="H172" s="20">
         <v>257100</v>
       </c>
       <c r="I172" s="11"/>
@@ -5161,7 +5121,7 @@
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="14"/>
-      <c r="H173" s="31">
+      <c r="H173" s="20">
         <v>257100</v>
       </c>
       <c r="I173" s="11"/>
@@ -5184,7 +5144,7 @@
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="14"/>
-      <c r="H174" s="31">
+      <c r="H174" s="20">
         <v>257100</v>
       </c>
       <c r="I174" s="11"/>
@@ -5207,7 +5167,7 @@
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="14"/>
-      <c r="H175" s="31">
+      <c r="H175" s="20">
         <v>254900</v>
       </c>
       <c r="I175" s="11"/>
@@ -5230,7 +5190,7 @@
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="14"/>
-      <c r="H176" s="31">
+      <c r="H176" s="20">
         <v>257100</v>
       </c>
       <c r="I176" s="11"/>
@@ -5253,7 +5213,7 @@
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="14"/>
-      <c r="H177" s="31">
+      <c r="H177" s="20">
         <v>257100</v>
       </c>
       <c r="I177" s="11"/>
@@ -5276,7 +5236,7 @@
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="14"/>
-      <c r="H178" s="31">
+      <c r="H178" s="20">
         <v>237500</v>
       </c>
       <c r="I178" s="11"/>
@@ -5299,7 +5259,7 @@
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="14"/>
-      <c r="H179" s="31">
+      <c r="H179" s="20">
         <v>233300</v>
       </c>
       <c r="I179" s="11"/>
@@ -5322,7 +5282,7 @@
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="14"/>
-      <c r="H180" s="31">
+      <c r="H180" s="20">
         <v>233300</v>
       </c>
       <c r="I180" s="11"/>
@@ -5345,7 +5305,7 @@
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="14"/>
-      <c r="H181" s="31">
+      <c r="H181" s="20">
         <v>233300</v>
       </c>
       <c r="I181" s="11"/>
@@ -5368,7 +5328,7 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="14"/>
-      <c r="H182" s="31">
+      <c r="H182" s="20">
         <v>232600</v>
       </c>
       <c r="I182" s="11"/>
@@ -5391,7 +5351,7 @@
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="14"/>
-      <c r="H183" s="31">
+      <c r="H183" s="20">
         <v>236500</v>
       </c>
       <c r="I183" s="11"/>
@@ -5414,7 +5374,7 @@
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="14"/>
-      <c r="H184" s="31">
+      <c r="H184" s="20">
         <v>236500</v>
       </c>
       <c r="I184" s="11"/>
@@ -5437,7 +5397,7 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="14"/>
-      <c r="H185" s="31">
+      <c r="H185" s="20">
         <v>228300</v>
       </c>
       <c r="I185" s="11"/>
@@ -5460,7 +5420,7 @@
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="14"/>
-      <c r="H186" s="31">
+      <c r="H186" s="20">
         <v>232600</v>
       </c>
       <c r="I186" s="11"/>
@@ -5483,7 +5443,7 @@
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="14"/>
-      <c r="H187" s="31">
+      <c r="H187" s="20">
         <v>260200</v>
       </c>
       <c r="I187" s="11"/>
@@ -5506,7 +5466,7 @@
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="14"/>
-      <c r="H188" s="31">
+      <c r="H188" s="20">
         <v>260200</v>
       </c>
       <c r="I188" s="11"/>
@@ -5529,7 +5489,7 @@
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="14"/>
-      <c r="H189" s="31">
+      <c r="H189" s="20">
         <v>206145.80000000002</v>
       </c>
       <c r="I189" s="16"/>
@@ -5552,7 +5512,7 @@
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="14"/>
-      <c r="H190" s="31">
+      <c r="H190" s="20">
         <v>330894</v>
       </c>
       <c r="I190" s="16"/>
@@ -5575,7 +5535,7 @@
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="14"/>
-      <c r="H191" s="31">
+      <c r="H191" s="20">
         <v>330894</v>
       </c>
       <c r="I191" s="16"/>
@@ -5598,7 +5558,7 @@
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="14"/>
-      <c r="H192" s="31">
+      <c r="H192" s="20">
         <v>330894</v>
       </c>
       <c r="I192" s="16"/>
@@ -5621,7 +5581,7 @@
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="14"/>
-      <c r="H193" s="31">
+      <c r="H193" s="20">
         <v>330894</v>
       </c>
       <c r="I193" s="16"/>
@@ -5639,12 +5599,12 @@
       <c r="D194" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E194" s="24">
+      <c r="E194" s="30">
         <v>674115.6</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="14"/>
-      <c r="H194" s="31">
+      <c r="H194" s="20">
         <v>674115.6</v>
       </c>
       <c r="I194" s="16"/>
@@ -5667,7 +5627,7 @@
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="14"/>
-      <c r="H195" s="31">
+      <c r="H195" s="20">
         <v>218234.19999999998</v>
       </c>
       <c r="I195" s="16"/>
@@ -5690,7 +5650,7 @@
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="14"/>
-      <c r="H196" s="31">
+      <c r="H196" s="20">
         <v>207204</v>
       </c>
       <c r="I196" s="16"/>
@@ -5713,7 +5673,7 @@
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="14"/>
-      <c r="H197" s="31">
+      <c r="H197" s="20">
         <v>207204</v>
       </c>
       <c r="I197" s="16"/>
@@ -5736,7 +5696,7 @@
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="14"/>
-      <c r="H198" s="31">
+      <c r="H198" s="20">
         <v>201748</v>
       </c>
       <c r="I198" s="16"/>
@@ -5754,12 +5714,12 @@
       <c r="D199" s="3">
         <v>1</v>
       </c>
-      <c r="E199" s="24">
+      <c r="E199" s="30">
         <v>567168.6</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="14"/>
-      <c r="H199" s="31">
+      <c r="H199" s="20">
         <v>567168.6</v>
       </c>
       <c r="I199" s="16"/>
@@ -5782,7 +5742,7 @@
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="14"/>
-      <c r="H200" s="31">
+      <c r="H200" s="20">
         <v>206145.80000000002</v>
       </c>
       <c r="I200" s="16"/>
@@ -5805,7 +5765,7 @@
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="14"/>
-      <c r="H201" s="31">
+      <c r="H201" s="20">
         <v>207204</v>
       </c>
       <c r="I201" s="16"/>
@@ -5828,7 +5788,7 @@
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="14"/>
-      <c r="H202" s="31">
+      <c r="H202" s="20">
         <v>181904.69999999998</v>
       </c>
       <c r="I202" s="16"/>
@@ -5851,7 +5811,7 @@
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="14"/>
-      <c r="H203" s="31">
+      <c r="H203" s="20">
         <v>207204</v>
       </c>
       <c r="I203" s="16"/>
@@ -5874,7 +5834,7 @@
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="14"/>
-      <c r="H204" s="31">
+      <c r="H204" s="20">
         <v>181904.69999999998</v>
       </c>
       <c r="I204" s="16"/>
@@ -5897,7 +5857,7 @@
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="14"/>
-      <c r="H205" s="31">
+      <c r="H205" s="20">
         <v>207204</v>
       </c>
       <c r="I205" s="16"/>
@@ -5920,7 +5880,7 @@
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="14"/>
-      <c r="H206" s="31">
+      <c r="H206" s="20">
         <v>207204</v>
       </c>
       <c r="I206" s="16"/>
@@ -5943,7 +5903,7 @@
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="14"/>
-      <c r="H207" s="31">
+      <c r="H207" s="20">
         <v>181904.69999999998</v>
       </c>
       <c r="I207" s="16"/>
@@ -5966,7 +5926,7 @@
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="14"/>
-      <c r="H208" s="31">
+      <c r="H208" s="20">
         <v>207204</v>
       </c>
       <c r="I208" s="16"/>
@@ -5989,7 +5949,7 @@
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="14"/>
-      <c r="H209" s="31">
+      <c r="H209" s="20">
         <v>218234.19999999998</v>
       </c>
       <c r="I209" s="16"/>
@@ -6012,7 +5972,7 @@
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="14"/>
-      <c r="H210" s="31">
+      <c r="H210" s="20">
         <v>352966</v>
       </c>
       <c r="I210" s="16"/>
@@ -6035,7 +5995,7 @@
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="14"/>
-      <c r="H211" s="31">
+      <c r="H211" s="20">
         <v>207204</v>
       </c>
       <c r="I211" s="16"/>
@@ -6058,7 +6018,7 @@
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="14"/>
-      <c r="H212" s="31">
+      <c r="H212" s="20">
         <v>207204</v>
       </c>
       <c r="I212" s="16"/>
@@ -6081,7 +6041,7 @@
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="14"/>
-      <c r="H213" s="31">
+      <c r="H213" s="20">
         <v>206145.80000000002</v>
       </c>
       <c r="I213" s="16"/>
@@ -6104,7 +6064,7 @@
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="14"/>
-      <c r="H214" s="31">
+      <c r="H214" s="20">
         <v>205282</v>
       </c>
       <c r="I214" s="16"/>
@@ -6122,12 +6082,12 @@
       <c r="D215" s="3">
         <v>1</v>
       </c>
-      <c r="E215" s="24">
+      <c r="E215" s="30">
         <v>567168.6</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="14"/>
-      <c r="H215" s="31">
+      <c r="H215" s="20">
         <v>567168.6</v>
       </c>
       <c r="I215" s="16"/>
@@ -6151,7 +6111,7 @@
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="14"/>
-      <c r="H216" s="31">
+      <c r="H216" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I216" s="16"/>
@@ -6175,7 +6135,7 @@
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="14"/>
-      <c r="H217" s="31">
+      <c r="H217" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I217" s="16"/>
@@ -6199,7 +6159,7 @@
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="14"/>
-      <c r="H218" s="31">
+      <c r="H218" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I218" s="16"/>
@@ -6222,7 +6182,7 @@
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="14"/>
-      <c r="H219" s="31">
+      <c r="H219" s="20">
         <v>244211.4</v>
       </c>
       <c r="I219" s="16"/>
@@ -6246,7 +6206,7 @@
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="14"/>
-      <c r="H220" s="31">
+      <c r="H220" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I220" s="16"/>
@@ -6270,7 +6230,7 @@
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="14"/>
-      <c r="H221" s="31">
+      <c r="H221" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I221" s="16"/>
@@ -6293,7 +6253,7 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="14"/>
-      <c r="H222" s="31">
+      <c r="H222" s="20">
         <v>181904.69999999998</v>
       </c>
       <c r="I222" s="16"/>
@@ -6317,7 +6277,7 @@
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="14"/>
-      <c r="H223" s="31">
+      <c r="H223" s="20">
         <v>233605.80000000002</v>
       </c>
       <c r="I223" s="16"/>
@@ -6340,7 +6300,7 @@
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="14"/>
-      <c r="H224" s="31">
+      <c r="H224" s="20">
         <v>192321.3</v>
       </c>
       <c r="I224" s="16"/>
@@ -6364,7 +6324,7 @@
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="14"/>
-      <c r="H225" s="31">
+      <c r="H225" s="20">
         <v>249682.8</v>
       </c>
       <c r="I225" s="16"/>
@@ -6387,7 +6347,7 @@
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="14"/>
-      <c r="H226" s="31">
+      <c r="H226" s="20">
         <v>209710.5</v>
       </c>
       <c r="I226" s="16"/>
@@ -6410,7 +6370,7 @@
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="14"/>
-      <c r="H227" s="31">
+      <c r="H227" s="20">
         <v>209710.5</v>
       </c>
       <c r="I227" s="16"/>
@@ -6428,12 +6388,12 @@
       <c r="D228" s="3">
         <v>1</v>
       </c>
-      <c r="E228" s="24">
+      <c r="E228" s="30">
         <v>574471.19999999995</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="14"/>
-      <c r="H228" s="31">
+      <c r="H228" s="20">
         <v>574471.19999999995</v>
       </c>
       <c r="I228" s="16"/>
@@ -6456,7 +6416,7 @@
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="14"/>
-      <c r="H229" s="31">
+      <c r="H229" s="20">
         <v>208390.00000000003</v>
       </c>
       <c r="I229" s="16"/>
@@ -6479,7 +6439,7 @@
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="14"/>
-      <c r="H230" s="31">
+      <c r="H230" s="20">
         <v>209710.5</v>
       </c>
       <c r="I230" s="16"/>
@@ -6502,7 +6462,7 @@
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="14"/>
-      <c r="H231" s="31">
+      <c r="H231" s="20">
         <v>183885</v>
       </c>
       <c r="I231" s="16"/>
@@ -6525,7 +6485,7 @@
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="14"/>
-      <c r="H232" s="31">
+      <c r="H232" s="20">
         <v>209710.5</v>
       </c>
       <c r="I232" s="16"/>
@@ -6548,7 +6508,7 @@
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="14"/>
-      <c r="H233" s="31">
+      <c r="H233" s="20">
         <v>183885</v>
       </c>
       <c r="I233" s="16"/>
@@ -6571,7 +6531,7 @@
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="14"/>
-      <c r="H234" s="31">
+      <c r="H234" s="20">
         <v>209710.5</v>
       </c>
       <c r="I234" s="16"/>
@@ -6594,7 +6554,7 @@
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="14"/>
-      <c r="H235" s="31">
+      <c r="H235" s="20">
         <v>183885</v>
       </c>
       <c r="I235" s="16"/>
@@ -6617,7 +6577,7 @@
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="14"/>
-      <c r="H236" s="31">
+      <c r="H236" s="20">
         <v>209710.5</v>
       </c>
       <c r="I236" s="16"/>
@@ -6640,7 +6600,7 @@
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="14"/>
-      <c r="H237" s="31">
+      <c r="H237" s="20">
         <v>183885</v>
       </c>
       <c r="I237" s="16"/>
@@ -6663,7 +6623,7 @@
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="14"/>
-      <c r="H238" s="31">
+      <c r="H238" s="20">
         <v>209710.5</v>
       </c>
       <c r="I238" s="16"/>
@@ -6686,7 +6646,7 @@
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="14"/>
-      <c r="H239" s="31">
+      <c r="H239" s="20">
         <v>220609.99999999997</v>
       </c>
       <c r="I239" s="16"/>
@@ -6709,7 +6669,7 @@
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="14"/>
-      <c r="H240" s="31">
+      <c r="H240" s="20">
         <v>357235.75</v>
       </c>
       <c r="I240" s="16"/>
@@ -6732,7 +6692,7 @@
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="14"/>
-      <c r="H241" s="31">
+      <c r="H241" s="20">
         <v>209710.5</v>
       </c>
       <c r="I241" s="16"/>
@@ -6755,7 +6715,7 @@
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="14"/>
-      <c r="H242" s="31">
+      <c r="H242" s="20">
         <v>209710.5</v>
       </c>
       <c r="I242" s="16"/>
@@ -6778,7 +6738,7 @@
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="14"/>
-      <c r="H243" s="31">
+      <c r="H243" s="20">
         <v>208390.00000000003</v>
       </c>
       <c r="I243" s="16"/>
@@ -6801,7 +6761,7 @@
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="14"/>
-      <c r="H244" s="31">
+      <c r="H244" s="20">
         <v>207765.25</v>
       </c>
       <c r="I244" s="16"/>
@@ -6819,12 +6779,12 @@
       <c r="D245" s="3">
         <v>1</v>
       </c>
-      <c r="E245" s="24">
+      <c r="E245" s="30">
         <v>574471.19999999995</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="14"/>
-      <c r="H245" s="31">
+      <c r="H245" s="20">
         <v>574471.19999999995</v>
       </c>
       <c r="I245" s="16"/>
@@ -6848,7 +6808,7 @@
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="14"/>
-      <c r="H246" s="31">
+      <c r="H246" s="20">
         <v>236613.6</v>
       </c>
       <c r="I246" s="16"/>
@@ -6872,7 +6832,7 @@
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="14"/>
-      <c r="H247" s="31">
+      <c r="H247" s="20">
         <v>236613.6</v>
       </c>
       <c r="I247" s="16"/>
@@ -6896,7 +6856,7 @@
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="14"/>
-      <c r="H248" s="31">
+      <c r="H248" s="20">
         <v>236613.6</v>
       </c>
       <c r="I248" s="16"/>
@@ -6919,7 +6879,7 @@
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="14"/>
-      <c r="H249" s="31">
+      <c r="H249" s="20">
         <v>246869.99999999997</v>
       </c>
       <c r="I249" s="16"/>
@@ -6943,7 +6903,7 @@
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="14"/>
-      <c r="H250" s="31">
+      <c r="H250" s="20">
         <v>236613.6</v>
       </c>
       <c r="I250" s="16"/>
@@ -6966,7 +6926,7 @@
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="14"/>
-      <c r="H251" s="31">
+      <c r="H251" s="20">
         <v>183885</v>
       </c>
       <c r="I251" s="16"/>
@@ -6989,7 +6949,7 @@
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="14"/>
-      <c r="H252" s="31">
+      <c r="H252" s="20">
         <v>183885</v>
       </c>
       <c r="I252" s="16"/>
@@ -7013,7 +6973,7 @@
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="14"/>
-      <c r="H253" s="31">
+      <c r="H253" s="20">
         <v>236613.6</v>
       </c>
       <c r="I253" s="16"/>
@@ -7036,7 +6996,7 @@
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="14"/>
-      <c r="H254" s="31">
+      <c r="H254" s="20">
         <v>194415</v>
       </c>
       <c r="I254" s="16"/>
@@ -7060,7 +7020,7 @@
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="14"/>
-      <c r="H255" s="31">
+      <c r="H255" s="20">
         <v>252897.6</v>
       </c>
       <c r="I255" s="16"/>
@@ -7083,7 +7043,7 @@
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="14"/>
-      <c r="H256" s="31">
+      <c r="H256" s="20">
         <v>212217</v>
       </c>
       <c r="I256" s="16"/>
@@ -7106,7 +7066,7 @@
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="14"/>
-      <c r="H257" s="31">
+      <c r="H257" s="20">
         <v>212217</v>
       </c>
       <c r="I257" s="16"/>
@@ -7129,7 +7089,7 @@
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="14"/>
-      <c r="H258" s="31">
+      <c r="H258" s="20">
         <v>206629</v>
       </c>
       <c r="I258" s="16"/>
@@ -7147,12 +7107,12 @@
       <c r="D259" s="3">
         <v>1</v>
       </c>
-      <c r="E259" s="24">
+      <c r="E259" s="30">
         <v>580151</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="14"/>
-      <c r="H259" s="31">
+      <c r="H259" s="20">
         <v>580151</v>
       </c>
       <c r="I259" s="16"/>
@@ -7175,7 +7135,7 @@
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="14"/>
-      <c r="H260" s="31">
+      <c r="H260" s="20">
         <v>210954.80000000002</v>
       </c>
       <c r="I260" s="16"/>
@@ -7198,7 +7158,7 @@
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="14"/>
-      <c r="H261" s="31">
+      <c r="H261" s="20">
         <v>212217</v>
       </c>
       <c r="I261" s="16"/>
@@ -7221,7 +7181,7 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="14"/>
-      <c r="H262" s="31">
+      <c r="H262" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I262" s="16"/>
@@ -7244,7 +7204,7 @@
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="14"/>
-      <c r="H263" s="31">
+      <c r="H263" s="20">
         <v>212217</v>
       </c>
       <c r="I263" s="16"/>
@@ -7267,7 +7227,7 @@
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="14"/>
-      <c r="H264" s="31">
+      <c r="H264" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I264" s="16"/>
@@ -7290,7 +7250,7 @@
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="14"/>
-      <c r="H265" s="31">
+      <c r="H265" s="20">
         <v>212217</v>
       </c>
       <c r="I265" s="16"/>
@@ -7313,7 +7273,7 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="14"/>
-      <c r="H266" s="31">
+      <c r="H266" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I266" s="16"/>
@@ -7336,7 +7296,7 @@
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="14"/>
-      <c r="H267" s="31">
+      <c r="H267" s="20">
         <v>212217</v>
       </c>
       <c r="I267" s="16"/>
@@ -7359,7 +7319,7 @@
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="14"/>
-      <c r="H268" s="31">
+      <c r="H268" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I268" s="16"/>
@@ -7382,7 +7342,7 @@
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="14"/>
-      <c r="H269" s="31">
+      <c r="H269" s="20">
         <v>212217</v>
       </c>
       <c r="I269" s="16"/>
@@ -7405,7 +7365,7 @@
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="14"/>
-      <c r="H270" s="31">
+      <c r="H270" s="20">
         <v>223325.19999999998</v>
       </c>
       <c r="I270" s="16"/>
@@ -7428,7 +7388,7 @@
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="14"/>
-      <c r="H271" s="31">
+      <c r="H271" s="20">
         <v>361505.5</v>
       </c>
       <c r="I271" s="16"/>
@@ -7451,7 +7411,7 @@
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="14"/>
-      <c r="H272" s="31">
+      <c r="H272" s="20">
         <v>212217</v>
       </c>
       <c r="I272" s="16"/>
@@ -7474,7 +7434,7 @@
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="14"/>
-      <c r="H273" s="31">
+      <c r="H273" s="20">
         <v>212217</v>
       </c>
       <c r="I273" s="16"/>
@@ -7497,7 +7457,7 @@
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="14"/>
-      <c r="H274" s="31">
+      <c r="H274" s="20">
         <v>210954.80000000002</v>
       </c>
       <c r="I274" s="16"/>
@@ -7515,12 +7475,12 @@
       <c r="D275" s="3">
         <v>1</v>
       </c>
-      <c r="E275" s="24">
+      <c r="E275" s="30">
         <v>580151</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="14"/>
-      <c r="H275" s="31">
+      <c r="H275" s="20">
         <v>580151</v>
       </c>
       <c r="I275" s="16"/>
@@ -7544,7 +7504,7 @@
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="14"/>
-      <c r="H276" s="31">
+      <c r="H276" s="20">
         <v>238953</v>
       </c>
       <c r="I276" s="12"/>
@@ -7567,7 +7527,7 @@
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="14"/>
-      <c r="H277" s="31">
+      <c r="H277" s="20">
         <v>249908.39999999997</v>
       </c>
       <c r="I277" s="12"/>
@@ -7590,7 +7550,7 @@
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="14"/>
-      <c r="H278" s="31">
+      <c r="H278" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I278" s="12"/>
@@ -7613,7 +7573,7 @@
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="14"/>
-      <c r="H279" s="31">
+      <c r="H279" s="20">
         <v>186148.19999999998</v>
       </c>
       <c r="I279" s="12"/>
@@ -7636,7 +7596,7 @@
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="14"/>
-      <c r="H280" s="31">
+      <c r="H280" s="20">
         <v>196807.8</v>
       </c>
       <c r="I280" s="12"/>
@@ -7660,7 +7620,7 @@
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="14"/>
-      <c r="H281" s="31">
+      <c r="H281" s="20">
         <v>255398</v>
       </c>
       <c r="I281" s="12"/>
@@ -7683,7 +7643,7 @@
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="14"/>
-      <c r="H282" s="31">
+      <c r="H282" s="20">
         <v>214723.5</v>
       </c>
       <c r="I282" s="12"/>
@@ -7706,7 +7666,7 @@
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="14"/>
-      <c r="H283" s="31">
+      <c r="H283" s="20">
         <v>214723.5</v>
       </c>
       <c r="I283" s="12"/>
@@ -7729,7 +7689,7 @@
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="14"/>
-      <c r="H284" s="31">
+      <c r="H284" s="20">
         <v>209069.5</v>
       </c>
       <c r="I284" s="12"/>
@@ -7747,12 +7707,12 @@
       <c r="D285" s="5">
         <v>1</v>
       </c>
-      <c r="E285" s="24">
+      <c r="E285" s="30">
         <v>587453.6</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="14"/>
-      <c r="H285" s="31">
+      <c r="H285" s="20">
         <v>587453.6</v>
       </c>
       <c r="I285" s="12"/>
@@ -7775,7 +7735,7 @@
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="14"/>
-      <c r="H286" s="31">
+      <c r="H286" s="20">
         <v>213519.6</v>
       </c>
       <c r="I286" s="12"/>
@@ -7798,7 +7758,7 @@
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="14"/>
-      <c r="H287" s="31">
+      <c r="H287" s="20">
         <v>214723.5</v>
       </c>
       <c r="I287" s="12"/>
@@ -7821,7 +7781,7 @@
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="14"/>
-      <c r="H288" s="31">
+      <c r="H288" s="20">
         <v>188411.4</v>
       </c>
       <c r="I288" s="12"/>
@@ -7844,7 +7804,7 @@
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="14"/>
-      <c r="H289" s="31">
+      <c r="H289" s="20">
         <v>214723.5</v>
       </c>
       <c r="I289" s="12"/>
@@ -7867,7 +7827,7 @@
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="14"/>
-      <c r="H290" s="31">
+      <c r="H290" s="20">
         <v>214723.5</v>
       </c>
       <c r="I290" s="12"/>
@@ -7890,7 +7850,7 @@
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="14"/>
-      <c r="H291" s="31">
+      <c r="H291" s="20">
         <v>214723.5</v>
       </c>
       <c r="I291" s="12"/>
@@ -7913,7 +7873,7 @@
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="14"/>
-      <c r="H292" s="31">
+      <c r="H292" s="20">
         <v>188411.4</v>
       </c>
       <c r="I292" s="12"/>
@@ -7936,7 +7896,7 @@
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="14"/>
-      <c r="H293" s="31">
+      <c r="H293" s="20">
         <v>214723.5</v>
       </c>
       <c r="I293" s="12"/>
@@ -7959,7 +7919,7 @@
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="14"/>
-      <c r="H294" s="31">
+      <c r="H294" s="20">
         <v>365775.25</v>
       </c>
       <c r="I294" s="12"/>
@@ -7982,7 +7942,7 @@
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="14"/>
-      <c r="H295" s="31">
+      <c r="H295" s="20">
         <v>214723.5</v>
       </c>
       <c r="I295" s="12"/>
@@ -8005,7 +7965,7 @@
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="14"/>
-      <c r="H296" s="31">
+      <c r="H296" s="20">
         <v>214723.5</v>
       </c>
       <c r="I296" s="12"/>
@@ -8028,7 +7988,7 @@
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="14"/>
-      <c r="H297" s="31">
+      <c r="H297" s="20">
         <v>213519.6</v>
       </c>
       <c r="I297" s="12"/>
@@ -8046,12 +8006,12 @@
       <c r="D298" s="5">
         <v>1</v>
       </c>
-      <c r="E298" s="24">
+      <c r="E298" s="30">
         <v>587453.6</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="14"/>
-      <c r="H298" s="31">
+      <c r="H298" s="20">
         <v>587453.6</v>
       </c>
       <c r="I298" s="12"/>
@@ -8074,7 +8034,7 @@
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="14"/>
-      <c r="H299" s="31">
+      <c r="H299" s="20">
         <v>252946.8</v>
       </c>
       <c r="I299" s="12"/>
@@ -8097,7 +8057,7 @@
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="14"/>
-      <c r="H300" s="31">
+      <c r="H300" s="20">
         <v>188411.4</v>
       </c>
       <c r="I300" s="12"/>
@@ -8120,7 +8080,7 @@
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="14"/>
-      <c r="H301" s="31">
+      <c r="H301" s="20">
         <v>188411.4</v>
       </c>
       <c r="I301" s="12"/>
@@ -8143,7 +8103,7 @@
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="14"/>
-      <c r="H302" s="31">
+      <c r="H302" s="20">
         <v>199200.6</v>
       </c>
       <c r="I302" s="12"/>
@@ -8166,7 +8126,7 @@
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="14"/>
-      <c r="H303" s="31">
+      <c r="H303" s="20">
         <v>217230</v>
       </c>
       <c r="I303" s="12"/>
@@ -8189,7 +8149,7 @@
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="14"/>
-      <c r="H304" s="31">
+      <c r="H304" s="20">
         <v>211510</v>
       </c>
       <c r="I304" s="12"/>
@@ -8207,12 +8167,12 @@
       <c r="D305" s="5">
         <v>1</v>
       </c>
-      <c r="E305" s="24">
+      <c r="E305" s="30">
         <v>593944.80000000005</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="14"/>
-      <c r="H305" s="31">
+      <c r="H305" s="20">
         <v>593944.80000000005</v>
       </c>
       <c r="I305" s="12"/>
@@ -8235,7 +8195,7 @@
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="14"/>
-      <c r="H306" s="31">
+      <c r="H306" s="20">
         <v>216084.40000000002</v>
       </c>
       <c r="I306" s="12"/>
@@ -8258,7 +8218,7 @@
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="14"/>
-      <c r="H307" s="31">
+      <c r="H307" s="20">
         <v>217230</v>
       </c>
       <c r="I307" s="12"/>
@@ -8281,7 +8241,7 @@
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="14"/>
-      <c r="H308" s="31">
+      <c r="H308" s="20">
         <v>190674.6</v>
       </c>
       <c r="I308" s="12"/>
@@ -8304,7 +8264,7 @@
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="14"/>
-      <c r="H309" s="31">
+      <c r="H309" s="20">
         <v>829600</v>
       </c>
       <c r="I309" s="12"/>
@@ -8327,7 +8287,7 @@
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="14"/>
-      <c r="H310" s="31">
+      <c r="H310" s="20">
         <v>693540</v>
       </c>
       <c r="I310" s="12"/>
@@ -8350,7 +8310,7 @@
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="14"/>
-      <c r="H311" s="31">
+      <c r="H311" s="20">
         <v>829600</v>
       </c>
       <c r="I311" s="12"/>
@@ -8373,7 +8333,7 @@
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="14"/>
-      <c r="H312" s="31">
+      <c r="H312" s="20">
         <v>761580</v>
       </c>
       <c r="I312" s="12"/>
@@ -8396,7 +8356,7 @@
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="14"/>
-      <c r="H313" s="31">
+      <c r="H313" s="20">
         <v>693143</v>
       </c>
       <c r="I313" s="12"/>
@@ -8419,7 +8379,7 @@
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="14"/>
-      <c r="H314" s="31">
+      <c r="H314" s="20">
         <v>216084.40000000002</v>
       </c>
       <c r="I314" s="12"/>
@@ -8437,12 +8397,12 @@
       <c r="D315" s="5">
         <v>2</v>
       </c>
-      <c r="E315" s="24">
+      <c r="E315" s="30">
         <v>837993.6</v>
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="14"/>
-      <c r="H315" s="31">
+      <c r="H315" s="20">
         <v>837993.6</v>
       </c>
       <c r="I315" s="12"/>
@@ -8465,7 +8425,7 @@
       </c>
       <c r="F316" s="3"/>
       <c r="G316" s="14"/>
-      <c r="H316" s="31">
+      <c r="H316" s="20">
         <v>190674.6</v>
       </c>
       <c r="I316" s="12"/>
@@ -8488,7 +8448,7 @@
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="14"/>
-      <c r="H317" s="31">
+      <c r="H317" s="20">
         <v>843200</v>
       </c>
       <c r="I317" s="12"/>
@@ -8511,7 +8471,7 @@
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="14"/>
-      <c r="H318" s="31">
+      <c r="H318" s="20">
         <v>917040</v>
       </c>
       <c r="I318" s="12"/>
@@ -8534,7 +8494,7 @@
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="14"/>
-      <c r="H319" s="31">
+      <c r="H319" s="20">
         <v>918653.99999999988</v>
       </c>
       <c r="I319" s="12"/>
@@ -8561,7 +8521,7 @@
       <c r="G320" s="12">
         <v>36584.978011764702</v>
       </c>
-      <c r="H320" s="31">
+      <c r="H320" s="20">
         <v>207314.87539999999</v>
       </c>
       <c r="I320" s="12"/>
@@ -8588,7 +8548,7 @@
       <c r="G321" s="12">
         <v>35985.001588235289</v>
       </c>
-      <c r="H321" s="31">
+      <c r="H321" s="20">
         <v>203915.00899999999</v>
       </c>
       <c r="I321" s="12"/>
@@ -8615,7 +8575,7 @@
       <c r="G322" s="12">
         <v>34185.005364705888</v>
       </c>
-      <c r="H322" s="31">
+      <c r="H322" s="20">
         <v>193715.03040000002</v>
       </c>
       <c r="I322" s="12"/>
@@ -8642,7 +8602,7 @@
       <c r="G323" s="12">
         <v>44085.06455294117</v>
       </c>
-      <c r="H323" s="31">
+      <c r="H323" s="20">
         <v>249815.36579999997</v>
       </c>
       <c r="I323" s="12"/>
@@ -8669,7 +8629,7 @@
       <c r="G324" s="12">
         <v>35985.038682352941</v>
       </c>
-      <c r="H324" s="31">
+      <c r="H324" s="20">
         <v>203915.21919999999</v>
       </c>
       <c r="I324" s="12"/>
@@ -8696,7 +8656,7 @@
       <c r="G325" s="12">
         <v>105979.67204999999</v>
       </c>
-      <c r="H325" s="31">
+      <c r="H325" s="20">
         <v>423918.68819999998</v>
       </c>
       <c r="I325" s="12"/>
@@ -8723,7 +8683,7 @@
       <c r="G326" s="12">
         <v>95979.938750000001</v>
       </c>
-      <c r="H326" s="31">
+      <c r="H326" s="20">
         <v>383919.755</v>
       </c>
       <c r="I326" s="12"/>
@@ -8750,7 +8710,7 @@
       <c r="G327" s="12">
         <v>69732.905249999996</v>
       </c>
-      <c r="H327" s="31">
+      <c r="H327" s="20">
         <v>278931.62099999998</v>
       </c>
       <c r="I327" s="12"/>
@@ -8777,7 +8737,7 @@
       <c r="G328" s="12">
         <v>87780.042799999996</v>
       </c>
-      <c r="H328" s="31">
+      <c r="H328" s="20">
         <v>351120.17119999998</v>
       </c>
       <c r="I328" s="12"/>
@@ -8804,7 +8764,7 @@
       <c r="G329" s="12">
         <v>87780.218925000008</v>
       </c>
-      <c r="H329" s="31">
+      <c r="H329" s="20">
         <v>351120.87570000003</v>
       </c>
       <c r="I329" s="12"/>
@@ -8831,7 +8791,7 @@
       <c r="G330" s="12">
         <v>87779.885399999999</v>
       </c>
-      <c r="H330" s="31">
+      <c r="H330" s="20">
         <v>351119.5416</v>
       </c>
       <c r="I330" s="12"/>
@@ -8858,7 +8818,7 @@
       <c r="G331" s="12">
         <v>87779.964825000003</v>
       </c>
-      <c r="H331" s="31">
+      <c r="H331" s="20">
         <v>351119.85930000001</v>
       </c>
       <c r="I331" s="12"/>
@@ -8885,7 +8845,7 @@
       <c r="G332" s="12">
         <v>36584.906717647063</v>
       </c>
-      <c r="H332" s="31">
+      <c r="H332" s="20">
         <v>207314.47140000001</v>
       </c>
       <c r="I332" s="12"/>
@@ -8912,7 +8872,7 @@
       <c r="G333" s="12">
         <v>35985.076235294124</v>
       </c>
-      <c r="H333" s="31">
+      <c r="H333" s="20">
         <v>203915.43200000003</v>
       </c>
       <c r="I333" s="12"/>
@@ -8939,7 +8899,7 @@
       <c r="G334" s="12">
         <v>34184.968199999996</v>
       </c>
-      <c r="H334" s="31">
+      <c r="H334" s="20">
         <v>193714.8198</v>
       </c>
       <c r="I334" s="12"/>
@@ -8966,7 +8926,7 @@
       <c r="G335" s="12">
         <v>34184.993505882354</v>
       </c>
-      <c r="H335" s="31">
+      <c r="H335" s="20">
         <v>193714.9632</v>
       </c>
       <c r="I335" s="12"/>
@@ -8993,7 +8953,7 @@
       <c r="G336" s="12">
         <v>95979.890300000014</v>
       </c>
-      <c r="H336" s="31">
+      <c r="H336" s="20">
         <v>383919.56120000005</v>
       </c>
       <c r="I336" s="12"/>
@@ -9020,7 +8980,7 @@
       <c r="G337" s="12">
         <v>95980.1875</v>
       </c>
-      <c r="H337" s="31">
+      <c r="H337" s="20">
         <v>383920.75</v>
       </c>
       <c r="I337" s="12"/>
@@ -9047,7 +9007,7 @@
       <c r="G338" s="12">
         <v>95979.881350000011</v>
       </c>
-      <c r="H338" s="31">
+      <c r="H338" s="20">
         <v>383919.52540000004</v>
       </c>
       <c r="I338" s="12"/>
@@ -9074,7 +9034,7 @@
       <c r="G339" s="12">
         <v>95980.17240000001</v>
       </c>
-      <c r="H339" s="31">
+      <c r="H339" s="20">
         <v>383920.68960000004</v>
       </c>
       <c r="I339" s="12"/>
@@ -9101,7 +9061,7 @@
       <c r="G340" s="12">
         <v>87779.903999999995</v>
       </c>
-      <c r="H340" s="31">
+      <c r="H340" s="20">
         <v>351119.61599999998</v>
       </c>
       <c r="I340" s="12"/>
@@ -9128,7 +9088,7 @@
       <c r="G341" s="12">
         <v>35985.027264705881</v>
       </c>
-      <c r="H341" s="31">
+      <c r="H341" s="20">
         <v>203915.15449999998</v>
       </c>
       <c r="I341" s="12"/>
@@ -9155,7 +9115,7 @@
       <c r="G342" s="12">
         <v>95979.850925000006</v>
       </c>
-      <c r="H342" s="31">
+      <c r="H342" s="20">
         <v>383919.40370000002</v>
       </c>
       <c r="I342" s="12"/>
@@ -9182,7 +9142,7 @@
       <c r="G343" s="12">
         <v>95979.95842499999</v>
       </c>
-      <c r="H343" s="31">
+      <c r="H343" s="20">
         <v>383919.83369999996</v>
       </c>
       <c r="I343" s="12"/>
@@ -9209,7 +9169,7 @@
       <c r="G344" s="12">
         <v>35984.998588235292</v>
       </c>
-      <c r="H344" s="31">
+      <c r="H344" s="20">
         <v>203914.992</v>
       </c>
       <c r="I344" s="12"/>
@@ -9236,7 +9196,7 @@
       <c r="G345" s="12">
         <v>36585.003176470593</v>
       </c>
-      <c r="H345" s="31">
+      <c r="H345" s="20">
         <v>207315.01800000001</v>
       </c>
       <c r="I345" s="12"/>
@@ -9263,7 +9223,7 @@
       <c r="G346" s="12">
         <v>36585.040376470592</v>
       </c>
-      <c r="H346" s="31">
+      <c r="H346" s="20">
         <v>207315.22880000001</v>
       </c>
       <c r="I346" s="12"/>
@@ -9290,7 +9250,7 @@
       <c r="G347" s="12">
         <v>36585.012670588236</v>
       </c>
-      <c r="H347" s="31">
+      <c r="H347" s="20">
         <v>207315.07180000001</v>
       </c>
       <c r="I347" s="12"/>
@@ -9317,7 +9277,7 @@
       <c r="G348" s="12">
         <v>95980.078250000006</v>
       </c>
-      <c r="H348" s="31">
+      <c r="H348" s="20">
         <v>383920.31300000002</v>
       </c>
       <c r="I348" s="12"/>
@@ -9344,7 +9304,7 @@
       <c r="G349" s="12">
         <v>95979.999250000008</v>
       </c>
-      <c r="H349" s="31">
+      <c r="H349" s="20">
         <v>383919.99700000003</v>
       </c>
       <c r="I349" s="12"/>
@@ -9371,7 +9331,7 @@
       <c r="G350" s="11">
         <v>28505.52</v>
       </c>
-      <c r="H350" s="31">
+      <c r="H350" s="20">
         <v>446586.48</v>
       </c>
       <c r="I350" s="11"/>
@@ -9394,7 +9354,7 @@
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="14"/>
-      <c r="H351" s="31">
+      <c r="H351" s="20">
         <v>611255.16</v>
       </c>
       <c r="I351" s="11"/>
@@ -9417,7 +9377,7 @@
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="14"/>
-      <c r="H352" s="31">
+      <c r="H352" s="20">
         <v>611255.16</v>
       </c>
       <c r="I352" s="11"/>
@@ -9440,7 +9400,7 @@
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="14"/>
-      <c r="H353" s="31">
+      <c r="H353" s="20">
         <v>475092</v>
       </c>
       <c r="I353" s="11"/>
@@ -9463,7 +9423,7 @@
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="14"/>
-      <c r="H354" s="31">
+      <c r="H354" s="20">
         <v>289900</v>
       </c>
       <c r="I354" s="17"/>
@@ -9486,7 +9446,7 @@
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="14"/>
-      <c r="H355" s="31">
+      <c r="H355" s="20">
         <v>289900</v>
       </c>
       <c r="I355" s="17"/>
@@ -9509,7 +9469,7 @@
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="14"/>
-      <c r="H356" s="31">
+      <c r="H356" s="20">
         <v>289900</v>
       </c>
       <c r="I356" s="17"/>
@@ -9532,7 +9492,7 @@
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="14"/>
-      <c r="H357" s="31">
+      <c r="H357" s="20">
         <v>289900</v>
       </c>
       <c r="I357" s="17"/>
@@ -9555,7 +9515,7 @@
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="14"/>
-      <c r="H358" s="31">
+      <c r="H358" s="20">
         <v>289900</v>
       </c>
       <c r="I358" s="17"/>
@@ -9578,7 +9538,7 @@
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="14"/>
-      <c r="H359" s="31">
+      <c r="H359" s="20">
         <v>289900</v>
       </c>
       <c r="I359" s="17"/>
@@ -9601,7 +9561,7 @@
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="14"/>
-      <c r="H360" s="31">
+      <c r="H360" s="20">
         <v>289900</v>
       </c>
       <c r="I360" s="17"/>
@@ -9624,7 +9584,7 @@
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="14"/>
-      <c r="H361" s="31">
+      <c r="H361" s="20">
         <v>289900</v>
       </c>
       <c r="I361" s="17"/>
@@ -9647,7 +9607,7 @@
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="14"/>
-      <c r="H362" s="31">
+      <c r="H362" s="20">
         <v>289900</v>
       </c>
       <c r="I362" s="17"/>
@@ -9670,7 +9630,7 @@
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="14"/>
-      <c r="H363" s="31">
+      <c r="H363" s="20">
         <v>289900</v>
       </c>
       <c r="I363" s="17"/>
